--- a/data/IBGE/IntegraçãoCensosAgropecuarios 2006 e 2017.xlsx
+++ b/data/IBGE/IntegraçãoCensosAgropecuarios 2006 e 2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carrefour\Desktop\Pasta Doutorado\4. Projetos de Pesquisa\Trabalho Paula\3 -  Painel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dca3508b15c96f8f/- Geral^MWork/Consultorias/Projeto Luan e Luiz de Alimentação Infantil/Projeto-Alimentacao-Infantil/data/IBGE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED0D3FB-C4A5-4F32-824F-AA1433212B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{AED0D3FB-C4A5-4F32-824F-AA1433212B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6347C3FC-056E-4913-9B29-47B9DA60E38B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Setores</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Espécie criada na aquicultura x Condição do produtor em relação às terras</t>
   </si>
   <si>
-    <t>Agricultura, 
-Pesca/ 
-Aquicultura, 
-Sivilcultura</t>
-  </si>
-  <si>
     <t>Pesca/Aquicultura</t>
   </si>
   <si>
@@ -110,14 +104,6 @@
     <t>Silvicultura</t>
   </si>
   <si>
-    <t>Número das tabelas da
-extraídas do censo agropecuária de 2017</t>
-  </si>
-  <si>
-    <t>Número das tabelas da
-extraídas do censo agropecuária de 2006</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Produtos da agroindústria rural</t>
   </si>
   <si>
@@ -128,6 +114,15 @@
   </si>
   <si>
     <t>Grupos de cabeças de galinhas, galos, frangos, frangas e pintos</t>
+  </si>
+  <si>
+    <t>Agricultura, Pesca/Aquicultura, Sivilcultura</t>
+  </si>
+  <si>
+    <t>Número das tabelas extraídas do censo agropecuária de 2006</t>
+  </si>
+  <si>
+    <t>Número das tabelas extraídas do censo agropecuária de 2017</t>
   </si>
 </sst>
 </file>
@@ -185,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -253,15 +248,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -284,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -296,7 +282,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -314,13 +300,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -339,7 +325,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -351,12 +337,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -595,10 +579,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>16</v>
@@ -631,10 +615,10 @@
     </row>
     <row r="2" spans="1:28" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="5">
         <v>6953</v>
@@ -650,9 +634,11 @@
       </c>
     </row>
     <row r="3" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="5">
         <v>6957</v>
@@ -668,9 +654,11 @@
       </c>
     </row>
     <row r="4" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5">
         <v>6955</v>
@@ -686,9 +674,11 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5">
         <v>6912</v>
@@ -704,9 +694,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5">
         <v>6947</v>
@@ -722,9 +714,11 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5">
         <v>6937</v>
@@ -741,10 +735,10 @@
     </row>
     <row r="8" spans="1:28" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="13">
         <v>6960</v>
@@ -753,7 +747,7 @@
         <v>2352</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>8</v>
@@ -776,8 +770,10 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24"/>
       <c r="C10" s="20">
         <v>6926</v>
       </c>
@@ -790,8 +786,10 @@
       </c>
     </row>
     <row r="11" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="20">
@@ -801,15 +799,17 @@
         <v>2394</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24"/>
       <c r="C12" s="20">
         <v>1092</v>
       </c>
@@ -822,8 +822,10 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="24"/>
       <c r="C13" s="20">
         <v>1093</v>
       </c>
@@ -836,8 +838,10 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="24"/>
       <c r="C14" s="20">
         <v>1094</v>
       </c>
@@ -1826,10 +1830,6 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A2:A7"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
